--- a/Testing/results/NoOfPixels_Data.xlsx
+++ b/Testing/results/NoOfPixels_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anant\Desktop\ATLAS_ontology\github\ORATOR-ATLAS\Testing\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF05562-D35B-4A76-B4D7-99DCEC488BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4E2E86-85E4-4B27-BC2E-BC69FE619F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-5190" windowWidth="29040" windowHeight="15720" tabRatio="781" xr2:uid="{2BB836F2-B5E9-42FA-846F-C2C6B98BFF2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="781" activeTab="6" xr2:uid="{2BB836F2-B5E9-42FA-846F-C2C6B98BFF2E}"/>
   </bookViews>
   <sheets>
     <sheet name="PixelsPerClass_RELLIS" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="134">
   <si>
     <t>Column1</t>
   </si>
@@ -408,6 +408,75 @@
   <si>
     <t>A2D2</t>
   </si>
+  <si>
+    <t>geographic feature</t>
+  </si>
+  <si>
+    <t>ground cover</t>
+  </si>
+  <si>
+    <t>bush &amp; tree</t>
+  </si>
+  <si>
+    <t>tree/log</t>
+  </si>
+  <si>
+    <t>land body</t>
+  </si>
+  <si>
+    <t>water body</t>
+  </si>
+  <si>
+    <t>ground vehicle</t>
+  </si>
+  <si>
+    <t>aerial vehicle</t>
+  </si>
+  <si>
+    <t>imaging conditions</t>
+  </si>
+  <si>
+    <t>celestial body</t>
+  </si>
+  <si>
+    <t>time of day</t>
+  </si>
+  <si>
+    <t>elevation change</t>
+  </si>
+  <si>
+    <t>electric pole</t>
+  </si>
+  <si>
+    <t>fluctuating elevation</t>
+  </si>
+  <si>
+    <t>fog haze</t>
+  </si>
+  <si>
+    <t>guard rail</t>
+  </si>
+  <si>
+    <t>optical phenomenon</t>
+  </si>
+  <si>
+    <t>sensor issue</t>
+  </si>
+  <si>
+    <t>street light</t>
+  </si>
+  <si>
+    <t>snow ice</t>
+  </si>
+  <si>
+    <t>telecommunication pole</t>
+  </si>
+  <si>
+    <t>traffic light</t>
+  </si>
+  <si>
+    <t>traffic sign</t>
+  </si>
 </sst>
 </file>
 
@@ -543,7 +612,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="50000"/>
@@ -556,14 +625,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2800"/>
               <a:t>Number of Pixels per</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> class in Ontology for each dataset </a:t>
+              <a:rPr lang="en-US" sz="2800" baseline="0"/>
+              <a:t> Class for Each Dataset when imported to the Proposed Ontology </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="2800"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -580,7 +649,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="50000"/>
@@ -633,119 +702,119 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'AllDatasets Sorted'!$A$2:$A$38</c:f>
+              <c:f>'AllDatasets Sorted'!$H$2:$H$38</c:f>
               <c:strCache>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>unclassified</c:v>
+                  <c:v>Unclassified</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>void</c:v>
+                  <c:v>Void</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>unknown</c:v>
+                  <c:v>Unknown</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>atmospheric</c:v>
+                  <c:v>Atmospheric</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>sky</c:v>
+                  <c:v>Sky</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>geographic_feature</c:v>
+                  <c:v>Geographic Feature</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>artificial</c:v>
+                  <c:v>Artificial</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>infrastructure</c:v>
+                  <c:v>Infrastructure</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>vegetation</c:v>
+                  <c:v>Vegetation</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>plant</c:v>
+                  <c:v>Plant</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>building</c:v>
+                  <c:v>Building</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>ground_cover</c:v>
+                  <c:v>Ground Cover</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>bush_and_tree</c:v>
+                  <c:v>Bush &amp; Tree</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>grass</c:v>
+                  <c:v>Grass</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>tree_log</c:v>
+                  <c:v>Tree/Log</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>regulatory</c:v>
+                  <c:v>Regulatory</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>pole</c:v>
+                  <c:v>Pole</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>soil</c:v>
+                  <c:v>Soil</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>landform</c:v>
+                  <c:v>Landform</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>detritus</c:v>
+                  <c:v>Detritus</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>rock</c:v>
+                  <c:v>Rock</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>land_body</c:v>
+                  <c:v>Land Body</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>H2O</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>water_body</c:v>
+                  <c:v>Water Body</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>water</c:v>
+                  <c:v>Water</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>puddle</c:v>
+                  <c:v>Puddle</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>wood</c:v>
+                  <c:v>Wood</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>barrier</c:v>
+                  <c:v>Barrier</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>road</c:v>
+                  <c:v>Road</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>asphalt</c:v>
+                  <c:v>Asphalt</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>agent</c:v>
+                  <c:v>Agent</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>fence</c:v>
+                  <c:v>Fence</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>vehicle</c:v>
+                  <c:v>Vehicle</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>person</c:v>
+                  <c:v>Person</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>bridge</c:v>
+                  <c:v>Bridge</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>ground_vehicle</c:v>
+                  <c:v>Ground Vehicle</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>animal</c:v>
+                  <c:v>Animal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -896,119 +965,119 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'AllDatasets Sorted'!$A$2:$A$38</c:f>
+              <c:f>'AllDatasets Sorted'!$H$2:$H$38</c:f>
               <c:strCache>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>unclassified</c:v>
+                  <c:v>Unclassified</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>void</c:v>
+                  <c:v>Void</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>unknown</c:v>
+                  <c:v>Unknown</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>atmospheric</c:v>
+                  <c:v>Atmospheric</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>sky</c:v>
+                  <c:v>Sky</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>geographic_feature</c:v>
+                  <c:v>Geographic Feature</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>artificial</c:v>
+                  <c:v>Artificial</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>infrastructure</c:v>
+                  <c:v>Infrastructure</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>vegetation</c:v>
+                  <c:v>Vegetation</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>plant</c:v>
+                  <c:v>Plant</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>building</c:v>
+                  <c:v>Building</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>ground_cover</c:v>
+                  <c:v>Ground Cover</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>bush_and_tree</c:v>
+                  <c:v>Bush &amp; Tree</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>grass</c:v>
+                  <c:v>Grass</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>tree_log</c:v>
+                  <c:v>Tree/Log</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>regulatory</c:v>
+                  <c:v>Regulatory</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>pole</c:v>
+                  <c:v>Pole</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>soil</c:v>
+                  <c:v>Soil</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>landform</c:v>
+                  <c:v>Landform</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>detritus</c:v>
+                  <c:v>Detritus</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>rock</c:v>
+                  <c:v>Rock</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>land_body</c:v>
+                  <c:v>Land Body</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>H2O</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>water_body</c:v>
+                  <c:v>Water Body</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>water</c:v>
+                  <c:v>Water</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>puddle</c:v>
+                  <c:v>Puddle</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>wood</c:v>
+                  <c:v>Wood</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>barrier</c:v>
+                  <c:v>Barrier</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>road</c:v>
+                  <c:v>Road</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>asphalt</c:v>
+                  <c:v>Asphalt</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>agent</c:v>
+                  <c:v>Agent</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>fence</c:v>
+                  <c:v>Fence</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>vehicle</c:v>
+                  <c:v>Vehicle</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>person</c:v>
+                  <c:v>Person</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>bridge</c:v>
+                  <c:v>Bridge</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>ground_vehicle</c:v>
+                  <c:v>Ground Vehicle</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>animal</c:v>
+                  <c:v>Animal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1159,119 +1228,119 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'AllDatasets Sorted'!$A$2:$A$38</c:f>
+              <c:f>'AllDatasets Sorted'!$H$2:$H$38</c:f>
               <c:strCache>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>unclassified</c:v>
+                  <c:v>Unclassified</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>void</c:v>
+                  <c:v>Void</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>unknown</c:v>
+                  <c:v>Unknown</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>atmospheric</c:v>
+                  <c:v>Atmospheric</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>sky</c:v>
+                  <c:v>Sky</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>geographic_feature</c:v>
+                  <c:v>Geographic Feature</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>artificial</c:v>
+                  <c:v>Artificial</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>infrastructure</c:v>
+                  <c:v>Infrastructure</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>vegetation</c:v>
+                  <c:v>Vegetation</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>plant</c:v>
+                  <c:v>Plant</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>building</c:v>
+                  <c:v>Building</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>ground_cover</c:v>
+                  <c:v>Ground Cover</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>bush_and_tree</c:v>
+                  <c:v>Bush &amp; Tree</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>grass</c:v>
+                  <c:v>Grass</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>tree_log</c:v>
+                  <c:v>Tree/Log</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>regulatory</c:v>
+                  <c:v>Regulatory</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>pole</c:v>
+                  <c:v>Pole</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>soil</c:v>
+                  <c:v>Soil</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>landform</c:v>
+                  <c:v>Landform</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>detritus</c:v>
+                  <c:v>Detritus</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>rock</c:v>
+                  <c:v>Rock</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>land_body</c:v>
+                  <c:v>Land Body</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>H2O</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>water_body</c:v>
+                  <c:v>Water Body</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>water</c:v>
+                  <c:v>Water</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>puddle</c:v>
+                  <c:v>Puddle</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>wood</c:v>
+                  <c:v>Wood</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>barrier</c:v>
+                  <c:v>Barrier</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>road</c:v>
+                  <c:v>Road</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>asphalt</c:v>
+                  <c:v>Asphalt</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>agent</c:v>
+                  <c:v>Agent</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>fence</c:v>
+                  <c:v>Fence</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>vehicle</c:v>
+                  <c:v>Vehicle</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>person</c:v>
+                  <c:v>Person</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>bridge</c:v>
+                  <c:v>Bridge</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>ground_vehicle</c:v>
+                  <c:v>Ground Vehicle</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>animal</c:v>
+                  <c:v>Animal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1422,119 +1491,119 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'AllDatasets Sorted'!$A$2:$A$38</c:f>
+              <c:f>'AllDatasets Sorted'!$H$2:$H$38</c:f>
               <c:strCache>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>unclassified</c:v>
+                  <c:v>Unclassified</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>void</c:v>
+                  <c:v>Void</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>unknown</c:v>
+                  <c:v>Unknown</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>atmospheric</c:v>
+                  <c:v>Atmospheric</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>sky</c:v>
+                  <c:v>Sky</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>geographic_feature</c:v>
+                  <c:v>Geographic Feature</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>artificial</c:v>
+                  <c:v>Artificial</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>infrastructure</c:v>
+                  <c:v>Infrastructure</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>vegetation</c:v>
+                  <c:v>Vegetation</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>plant</c:v>
+                  <c:v>Plant</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>building</c:v>
+                  <c:v>Building</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>ground_cover</c:v>
+                  <c:v>Ground Cover</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>bush_and_tree</c:v>
+                  <c:v>Bush &amp; Tree</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>grass</c:v>
+                  <c:v>Grass</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>tree_log</c:v>
+                  <c:v>Tree/Log</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>regulatory</c:v>
+                  <c:v>Regulatory</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>pole</c:v>
+                  <c:v>Pole</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>soil</c:v>
+                  <c:v>Soil</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>landform</c:v>
+                  <c:v>Landform</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>detritus</c:v>
+                  <c:v>Detritus</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>rock</c:v>
+                  <c:v>Rock</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>land_body</c:v>
+                  <c:v>Land Body</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>H2O</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>water_body</c:v>
+                  <c:v>Water Body</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>water</c:v>
+                  <c:v>Water</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>puddle</c:v>
+                  <c:v>Puddle</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>wood</c:v>
+                  <c:v>Wood</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>barrier</c:v>
+                  <c:v>Barrier</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>road</c:v>
+                  <c:v>Road</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>asphalt</c:v>
+                  <c:v>Asphalt</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>agent</c:v>
+                  <c:v>Agent</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>fence</c:v>
+                  <c:v>Fence</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>vehicle</c:v>
+                  <c:v>Vehicle</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>person</c:v>
+                  <c:v>Person</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>bridge</c:v>
+                  <c:v>Bridge</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>ground_vehicle</c:v>
+                  <c:v>Ground Vehicle</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>animal</c:v>
+                  <c:v>Animal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1685,119 +1754,119 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'AllDatasets Sorted'!$A$2:$A$38</c:f>
+              <c:f>'AllDatasets Sorted'!$H$2:$H$38</c:f>
               <c:strCache>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>unclassified</c:v>
+                  <c:v>Unclassified</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>void</c:v>
+                  <c:v>Void</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>unknown</c:v>
+                  <c:v>Unknown</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>atmospheric</c:v>
+                  <c:v>Atmospheric</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>sky</c:v>
+                  <c:v>Sky</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>geographic_feature</c:v>
+                  <c:v>Geographic Feature</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>artificial</c:v>
+                  <c:v>Artificial</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>infrastructure</c:v>
+                  <c:v>Infrastructure</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>vegetation</c:v>
+                  <c:v>Vegetation</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>plant</c:v>
+                  <c:v>Plant</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>building</c:v>
+                  <c:v>Building</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>ground_cover</c:v>
+                  <c:v>Ground Cover</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>bush_and_tree</c:v>
+                  <c:v>Bush &amp; Tree</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>grass</c:v>
+                  <c:v>Grass</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>tree_log</c:v>
+                  <c:v>Tree/Log</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>regulatory</c:v>
+                  <c:v>Regulatory</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>pole</c:v>
+                  <c:v>Pole</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>soil</c:v>
+                  <c:v>Soil</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>landform</c:v>
+                  <c:v>Landform</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>detritus</c:v>
+                  <c:v>Detritus</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>rock</c:v>
+                  <c:v>Rock</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>land_body</c:v>
+                  <c:v>Land Body</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>H2O</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>water_body</c:v>
+                  <c:v>Water Body</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>water</c:v>
+                  <c:v>Water</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>puddle</c:v>
+                  <c:v>Puddle</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>wood</c:v>
+                  <c:v>Wood</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>barrier</c:v>
+                  <c:v>Barrier</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>road</c:v>
+                  <c:v>Road</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>asphalt</c:v>
+                  <c:v>Asphalt</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>agent</c:v>
+                  <c:v>Agent</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>fence</c:v>
+                  <c:v>Fence</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>vehicle</c:v>
+                  <c:v>Vehicle</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>person</c:v>
+                  <c:v>Person</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>bridge</c:v>
+                  <c:v>Bridge</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>ground_vehicle</c:v>
+                  <c:v>Ground Vehicle</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>animal</c:v>
+                  <c:v>Animal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1970,7 +2039,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
@@ -2031,7 +2100,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
@@ -2060,13 +2129,36 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.77000851480327959"/>
-          <c:y val="7.5470592459748242E-2"/>
-          <c:w val="0.21488829952152308"/>
+          <c:x val="0.60489827930256501"/>
+          <c:y val="6.9249557758378405E-2"/>
+          <c:w val="0.37101764649949776"/>
           <c:h val="6.4753930473792382E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2083,7 +2175,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
@@ -2164,7 +2256,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="50000"/>
@@ -2177,8 +2269,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Number of Pixels per class in Unified Ontology with all Datasets</a:t>
+              <a:rPr lang="en-US" sz="2800"/>
+              <a:t>Number of Pixels per Class for the</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800"/>
+              <a:t>Unified Dataset using the Proposed Ontology </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2196,7 +2296,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="50000"/>
@@ -2227,129 +2327,131 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'AllDatasets Sorted'!$A$2:$A$38</c:f>
+              <c:f>'AllDatasets Sorted'!$H$2:$H$38</c:f>
               <c:strCache>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>unclassified</c:v>
+                  <c:v>Unclassified</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>void</c:v>
+                  <c:v>Void</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>unknown</c:v>
+                  <c:v>Unknown</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>atmospheric</c:v>
+                  <c:v>Atmospheric</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>sky</c:v>
+                  <c:v>Sky</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>geographic_feature</c:v>
+                  <c:v>Geographic Feature</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>artificial</c:v>
+                  <c:v>Artificial</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>infrastructure</c:v>
+                  <c:v>Infrastructure</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>vegetation</c:v>
+                  <c:v>Vegetation</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>plant</c:v>
+                  <c:v>Plant</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>building</c:v>
+                  <c:v>Building</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>ground_cover</c:v>
+                  <c:v>Ground Cover</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>bush_and_tree</c:v>
+                  <c:v>Bush &amp; Tree</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>grass</c:v>
+                  <c:v>Grass</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>tree_log</c:v>
+                  <c:v>Tree/Log</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>regulatory</c:v>
+                  <c:v>Regulatory</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>pole</c:v>
+                  <c:v>Pole</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>soil</c:v>
+                  <c:v>Soil</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>landform</c:v>
+                  <c:v>Landform</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>detritus</c:v>
+                  <c:v>Detritus</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>rock</c:v>
+                  <c:v>Rock</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>land_body</c:v>
+                  <c:v>Land Body</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>H2O</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>water_body</c:v>
+                  <c:v>Water Body</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>water</c:v>
+                  <c:v>Water</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>puddle</c:v>
+                  <c:v>Puddle</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>wood</c:v>
+                  <c:v>Wood</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>barrier</c:v>
+                  <c:v>Barrier</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>road</c:v>
+                  <c:v>Road</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>asphalt</c:v>
+                  <c:v>Asphalt</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>agent</c:v>
+                  <c:v>Agent</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>fence</c:v>
+                  <c:v>Fence</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>vehicle</c:v>
+                  <c:v>Vehicle</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>person</c:v>
+                  <c:v>Person</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>bridge</c:v>
+                  <c:v>Bridge</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>ground_vehicle</c:v>
+                  <c:v>Ground Vehicle</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>animal</c:v>
+                  <c:v>Animal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2522,7 +2624,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
@@ -2582,7 +2684,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
@@ -2609,37 +2711,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3866,16 +3937,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>343398</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>492484</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>116694</xdr:rowOff>
+      <xdr:rowOff>124976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>605709</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>90979</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3904,16 +3975,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>235743</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>125729</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>429596</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>105517</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>329565</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4355,17 +4426,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4688329-825D-4EC9-84C4-46013F8CF779}">
   <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -4373,7 +4444,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4381,7 +4452,7 @@
         <v>14404234844</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4389,7 +4460,7 @@
         <v>10043300905</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4397,7 +4468,7 @@
         <v>10043300905</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4405,7 +4476,7 @@
         <v>10042824134</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -4413,7 +4484,7 @@
         <v>9246884426</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -4421,7 +4492,7 @@
         <v>9246884426</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -4429,7 +4500,7 @@
         <v>4784116443</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -4437,7 +4508,7 @@
         <v>4784116443</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -4445,7 +4516,7 @@
         <v>4458049667</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -4453,7 +4524,7 @@
         <v>4210629590</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -4461,7 +4532,7 @@
         <v>4210629590</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -4469,7 +4540,7 @@
         <v>2002047333</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -4477,7 +4548,7 @@
         <v>350552130</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4485,7 +4556,7 @@
         <v>295180438</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -4493,7 +4564,7 @@
         <v>290291116</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -4501,7 +4572,7 @@
         <v>137099802</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -4509,7 +4580,7 @@
         <v>137099802</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -4517,7 +4588,7 @@
         <v>137099802</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -4525,7 +4596,7 @@
         <v>123802355</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -4533,7 +4604,7 @@
         <v>123792296</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4541,7 +4612,7 @@
         <v>123792296</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -4549,7 +4620,7 @@
         <v>123792296</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -4557,7 +4628,7 @@
         <v>111981143</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -4565,7 +4636,7 @@
         <v>57784059</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -4573,7 +4644,7 @@
         <v>26891615</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -4581,7 +4652,7 @@
         <v>13681318</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -4589,7 +4660,7 @@
         <v>8791996</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -4597,7 +4668,7 @@
         <v>8324994</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -4605,7 +4676,7 @@
         <v>8324994</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -4613,7 +4684,7 @@
         <v>4889322</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -4621,7 +4692,7 @@
         <v>4718316</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -4629,7 +4700,7 @@
         <v>4445609</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -4637,7 +4708,7 @@
         <v>2501915</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -4645,7 +4716,7 @@
         <v>2501915</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -4653,7 +4724,7 @@
         <v>10059</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -4661,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -4669,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -4677,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -4685,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -4693,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -4701,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -4709,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -4717,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -4725,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -4733,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -4741,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -4749,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -4757,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -4765,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -4773,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>36</v>
       </c>
@@ -4781,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -4789,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -4797,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -4805,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -4813,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>41</v>
       </c>
@@ -4821,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -4829,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>43</v>
       </c>
@@ -4837,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -4845,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>47</v>
       </c>
@@ -4853,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -4861,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>50</v>
       </c>
@@ -4869,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -4877,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>52</v>
       </c>
@@ -4885,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -4893,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>55</v>
       </c>
@@ -4901,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>57</v>
       </c>
@@ -4909,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>58</v>
       </c>
@@ -4917,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>59</v>
       </c>
@@ -4925,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -4933,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>61</v>
       </c>
@@ -4941,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>62</v>
       </c>
@@ -4949,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>64</v>
       </c>
@@ -4957,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>65</v>
       </c>
@@ -4965,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>66</v>
       </c>
@@ -4973,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>68</v>
       </c>
@@ -4981,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>69</v>
       </c>
@@ -4989,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>71</v>
       </c>
@@ -4997,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>72</v>
       </c>
@@ -5005,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>74</v>
       </c>
@@ -5013,7 +5084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>75</v>
       </c>
@@ -5021,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>77</v>
       </c>
@@ -5029,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -5037,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>80</v>
       </c>
@@ -5045,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -5053,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -5061,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -5069,7 +5140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -5077,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -5085,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -5093,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -5101,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -5109,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -5117,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -5125,7 +5196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -5133,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -5141,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -5149,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -5157,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -5165,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -5173,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -5181,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -5202,13 +5273,13 @@
       <selection activeCell="B2" sqref="B2:B102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5216,7 +5287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5224,7 +5295,7 @@
         <v>86255486</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5232,7 +5303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5240,7 +5311,7 @@
         <v>80352022</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5248,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5256,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -5264,7 +5335,7 @@
         <v>590198327</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -5272,7 +5343,7 @@
         <v>80352022</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5280,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -5288,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -5296,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -5304,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -5312,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -5320,7 +5391,7 @@
         <v>59801138</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -5328,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -5336,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -5344,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -5352,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -5360,7 +5431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -5368,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -5376,7 +5447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -5384,7 +5455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -5392,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -5400,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -5408,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -5416,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -5424,7 +5495,7 @@
         <v>80352022</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -5432,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -5440,7 +5511,7 @@
         <v>80352022</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -5448,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -5456,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -5464,7 +5535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -5472,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -5480,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -5488,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -5496,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -5504,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -5512,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -5520,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -5528,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -5536,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -5544,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -5552,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -5560,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -5568,7 +5639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -5576,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -5584,7 +5655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -5592,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -5600,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -5608,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -5616,7 +5687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -5624,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -5632,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -5640,7 +5711,7 @@
         <v>80352022</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -5648,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -5656,7 +5727,7 @@
         <v>80352022</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -5664,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -5672,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -5680,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -5688,7 +5759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -5696,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -5704,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -5712,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -5720,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -5728,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -5736,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -5744,7 +5815,7 @@
         <v>444141703</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -5752,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -5760,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -5768,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -5776,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -5784,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -5792,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -5800,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -5808,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -5816,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -5824,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -5832,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -5840,7 +5911,7 @@
         <v>444141703</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -5848,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -5856,7 +5927,7 @@
         <v>59801138</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -5864,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -5872,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -5880,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -5888,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -5896,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -5904,7 +5975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -5912,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -5920,7 +5991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -5928,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -5936,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -5944,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -5952,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -5960,7 +6031,7 @@
         <v>444141703</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -5968,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -5976,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -5984,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -5992,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -6000,7 +6071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -6008,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -6016,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -6040,13 +6111,13 @@
       <selection activeCell="B2" sqref="B2:B102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6054,7 +6125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6062,7 +6133,7 @@
         <v>115084627</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6070,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -6078,7 +6149,7 @@
         <v>114642865</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6086,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -6094,7 +6165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -6102,7 +6173,7 @@
         <v>151092747</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -6110,7 +6181,7 @@
         <v>114642865</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -6118,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -6126,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -6134,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -6142,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -6150,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -6158,7 +6229,7 @@
         <v>34739739</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -6166,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -6174,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -6182,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -6190,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -6198,7 +6269,7 @@
         <v>13732978</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -6206,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -6214,7 +6285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -6222,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -6230,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -6238,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -6246,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -6254,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -6262,7 +6333,7 @@
         <v>100909887</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -6270,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -6278,7 +6349,7 @@
         <v>100909887</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -6286,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -6294,7 +6365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -6302,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -6310,7 +6381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -6318,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -6326,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -6334,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -6342,7 +6413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -6350,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -6358,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -6366,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -6374,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -6382,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -6390,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -6398,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -6406,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -6414,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -6422,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -6430,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -6438,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -6446,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -6454,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -6462,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -6470,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -6478,7 +6549,7 @@
         <v>39719160</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -6486,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -6494,7 +6565,7 @@
         <v>39719160</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -6502,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -6510,7 +6581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -6518,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -6526,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -6534,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -6542,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -6550,7 +6621,7 @@
         <v>61190727</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -6558,7 +6629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -6566,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -6574,7 +6645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -6582,7 +6653,7 @@
         <v>1268381</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -6590,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -6598,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -6606,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -6614,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -6622,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -6630,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -6638,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -6646,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -6654,7 +6725,7 @@
         <v>13732978</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -6662,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -6670,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -6678,7 +6749,7 @@
         <v>1268381</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -6686,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -6694,7 +6765,7 @@
         <v>34739739</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -6702,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -6710,7 +6781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -6718,7 +6789,7 @@
         <v>13732978</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -6726,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -6734,7 +6805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -6742,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -6750,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -6758,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -6766,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -6774,7 +6845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -6782,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -6790,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -6798,7 +6869,7 @@
         <v>1268381</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -6806,7 +6877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -6814,7 +6885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -6822,7 +6893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -6830,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -6838,7 +6909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -6846,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -6854,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -6878,13 +6949,13 @@
       <selection activeCell="B2" sqref="B2:B102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6892,7 +6963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6900,7 +6971,7 @@
         <v>2513801529</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6908,7 +6979,7 @@
         <v>17119835</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -6916,7 +6987,7 @@
         <v>2530721111</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6924,7 +6995,7 @@
         <v>197323441</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -6932,7 +7003,7 @@
         <v>8945535</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -6940,7 +7011,7 @@
         <v>2820721167</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -6948,7 +7019,7 @@
         <v>2530721111</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -6956,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -6964,7 +7035,7 @@
         <v>16919582</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -6972,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -6980,7 +7051,7 @@
         <v>138961249</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -6988,7 +7059,7 @@
         <v>39405392</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -6996,7 +7067,7 @@
         <v>224746957</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -7004,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -7012,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -7020,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -7028,7 +7099,7 @@
         <v>19574608</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -7036,7 +7107,7 @@
         <v>122041667</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -7044,7 +7115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -7052,7 +7123,7 @@
         <v>8945535</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -7060,7 +7131,7 @@
         <v>212799600</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -7068,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -7076,7 +7147,7 @@
         <v>4966829</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -7084,7 +7155,7 @@
         <v>39297319</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -7092,7 +7163,7 @@
         <v>1231246978</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -7100,7 +7171,7 @@
         <v>2175844919</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -7108,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -7116,7 +7187,7 @@
         <v>2175844919</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -7124,7 +7195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -7132,7 +7203,7 @@
         <v>203854065</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -7140,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -7148,7 +7219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -7156,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -7164,7 +7235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -7172,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -7180,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -7188,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -7196,7 +7267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -7204,7 +7275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -7212,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -7220,7 +7291,7 @@
         <v>294733634</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -7228,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -7236,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -7244,7 +7315,7 @@
         <v>2299774</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -7252,7 +7323,7 @@
         <v>2456071</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -7260,7 +7331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -7268,7 +7339,7 @@
         <v>19574608</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -7276,7 +7347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -7284,7 +7355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -7292,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -7300,7 +7371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -7308,7 +7379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -7316,7 +7387,7 @@
         <v>632645350</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -7324,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -7332,7 +7403,7 @@
         <v>927378984</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -7340,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -7348,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -7356,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -7364,7 +7435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -7372,7 +7443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -7380,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -7388,7 +7459,7 @@
         <v>1120088396</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -7396,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -7404,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -7412,7 +7483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -7420,7 +7491,7 @@
         <v>65052846</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -7428,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -7436,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -7444,7 +7515,7 @@
         <v>200253</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -7452,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -7460,7 +7531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -7468,7 +7539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -7476,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -7484,7 +7555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -7492,7 +7563,7 @@
         <v>39405392</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -7500,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -7508,7 +7579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -7516,7 +7587,7 @@
         <v>65052846</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -7524,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -7532,7 +7603,7 @@
         <v>224746957</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -7540,7 +7611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -7548,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -7556,7 +7627,7 @@
         <v>9645967</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -7564,7 +7635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -7572,7 +7643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -7580,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -7588,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -7596,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -7604,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -7612,7 +7683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -7620,7 +7691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -7628,7 +7699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -7636,7 +7707,7 @@
         <v>65052846</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -7644,7 +7715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -7652,7 +7723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -7660,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -7668,7 +7739,7 @@
         <v>8945535</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -7676,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -7684,7 +7755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -7692,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -7716,13 +7787,13 @@
       <selection activeCell="B2" sqref="B2:B102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7730,7 +7801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7738,7 +7809,7 @@
         <v>13247319268</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7746,7 +7817,7 @@
         <v>2620602</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7754,7 +7825,7 @@
         <v>13249337198</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7762,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -7770,7 +7841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -7778,7 +7849,7 @@
         <v>95722689474</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -7786,7 +7857,7 @@
         <v>13249337198</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -7794,7 +7865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -7802,7 +7873,7 @@
         <v>2017930</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -7810,7 +7881,7 @@
         <v>602672</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -7818,7 +7889,7 @@
         <v>13249337198</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -7826,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -7834,7 +7905,7 @@
         <v>23693590750</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -7842,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -7850,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -7858,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -7866,7 +7937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -7874,7 +7945,7 @@
         <v>13247319268</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -7882,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -7890,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -7898,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -7906,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -7914,7 +7985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -7922,7 +7993,7 @@
         <v>9532425919</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -7930,7 +8001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -7938,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -7946,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -7954,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -7962,7 +8033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -7970,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -7978,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -7986,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -7994,7 +8065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -8002,7 +8073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -8010,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -8018,7 +8089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -8026,7 +8097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -8034,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -8042,7 +8113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -8050,7 +8121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -8058,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -8066,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -8074,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -8082,7 +8153,7 @@
         <v>472781797</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -8090,7 +8161,7 @@
         <v>472781797</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -8098,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -8106,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -8114,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -8122,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -8130,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -8138,7 +8209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -8146,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -8154,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -8162,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -8170,7 +8241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -8178,7 +8249,7 @@
         <v>2017930</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -8186,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -8194,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -8202,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -8210,7 +8281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -8218,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -8226,7 +8297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -8234,7 +8305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -8242,7 +8313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -8250,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -8258,7 +8329,7 @@
         <v>58779158854</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -8266,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -8274,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -8282,7 +8353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -8290,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -8298,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -8306,7 +8377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -8314,7 +8385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -8322,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -8330,7 +8401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -8338,7 +8409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -8346,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -8354,7 +8425,7 @@
         <v>58779158854</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -8362,7 +8433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -8370,7 +8441,7 @@
         <v>23693590750</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -8378,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -8386,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -8394,7 +8465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -8402,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -8410,7 +8481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -8418,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -8426,7 +8497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -8434,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -8442,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -8450,7 +8521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -8458,7 +8529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -8466,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -8474,7 +8545,7 @@
         <v>58779158854</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -8482,7 +8553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -8490,7 +8561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -8498,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -8506,7 +8577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -8514,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -8522,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -8530,7 +8601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -8554,18 +8625,18 @@
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>104</v>
       </c>
@@ -8588,7 +8659,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -8612,7 +8683,7 @@
         <v>26005285044</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -8636,7 +8707,7 @@
         <v>33421755</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -8660,7 +8731,7 @@
         <v>26018354101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -8684,7 +8755,7 @@
         <v>224215056</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -8708,7 +8779,7 @@
         <v>132737831</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -8732,7 +8803,7 @@
         <v>113688936559</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -8756,7 +8827,7 @@
         <v>26018354101</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -8780,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -8804,7 +8875,7 @@
         <v>23826834</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -8828,7 +8899,7 @@
         <v>602672</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -8852,7 +8923,7 @@
         <v>13683478885</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -8876,7 +8947,7 @@
         <v>47730386</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -8900,7 +8971,7 @@
         <v>28223508174</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -8924,7 +8995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -8948,7 +9019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
@@ -8972,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -8996,7 +9067,7 @@
         <v>77358667</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -9020,7 +9091,7 @@
         <v>13673385029</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
@@ -9044,7 +9115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
@@ -9068,7 +9139,7 @@
         <v>132737831</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
@@ -9092,7 +9163,7 @@
         <v>336601955</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
@@ -9116,7 +9187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
@@ -9140,7 +9211,7 @@
         <v>4966829</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
@@ -9164,7 +9235,7 @@
         <v>9571723238</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
@@ -9188,7 +9259,7 @@
         <v>5689296645</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
@@ -9212,7 +9283,7 @@
         <v>11603991254</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
@@ -9236,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
@@ -9260,7 +9331,7 @@
         <v>11603991254</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
@@ -9284,7 +9355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
@@ -9308,7 +9379,7 @@
         <v>203864124</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
@@ -9332,7 +9403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
@@ -9356,7 +9427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
@@ -9380,7 +9451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
@@ -9404,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
@@ -9428,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
@@ -9452,7 +9523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
@@ -9476,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
@@ -9500,7 +9571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
@@ -9524,7 +9595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
@@ -9548,7 +9619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
@@ -9572,7 +9643,7 @@
         <v>294733634</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
@@ -9596,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>44</v>
       </c>
@@ -9620,7 +9691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
@@ -9644,7 +9715,7 @@
         <v>477583486</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>46</v>
       </c>
@@ -9668,7 +9739,7 @@
         <v>477739783</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
@@ -9692,7 +9763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
@@ -9716,7 +9787,7 @@
         <v>24020217</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>49</v>
       </c>
@@ -9740,7 +9811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
@@ -9764,7 +9835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>51</v>
       </c>
@@ -9788,7 +9859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
@@ -9812,7 +9883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>53</v>
       </c>
@@ -9836,7 +9907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>54</v>
       </c>
@@ -9860,7 +9931,7 @@
         <v>5536832975</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>55</v>
       </c>
@@ -9884,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>56</v>
       </c>
@@ -9908,7 +9979,7 @@
         <v>5831566609</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>57</v>
       </c>
@@ -9932,7 +10003,7 @@
         <v>2017930</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
@@ -9956,7 +10027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>59</v>
       </c>
@@ -9980,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
@@ -10004,7 +10075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>61</v>
       </c>
@@ -10028,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
@@ -10052,7 +10123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>63</v>
       </c>
@@ -10076,7 +10147,7 @@
         <v>3183326456</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>64</v>
       </c>
@@ -10100,7 +10171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>65</v>
       </c>
@@ -10124,7 +10195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
@@ -10148,7 +10219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>67</v>
       </c>
@@ -10172,7 +10243,7 @@
         <v>59426721586</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>68</v>
       </c>
@@ -10196,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>69</v>
       </c>
@@ -10220,7 +10291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>70</v>
       </c>
@@ -10244,7 +10315,7 @@
         <v>8992249</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>71</v>
       </c>
@@ -10268,7 +10339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>72</v>
       </c>
@@ -10292,7 +10363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>73</v>
       </c>
@@ -10316,7 +10387,7 @@
         <v>111981143</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>74</v>
       </c>
@@ -10340,7 +10411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>75</v>
       </c>
@@ -10364,7 +10435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>76</v>
       </c>
@@ -10388,7 +10459,7 @@
         <v>61463364</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>77</v>
       </c>
@@ -10412,7 +10483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>78</v>
       </c>
@@ -10436,7 +10507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>79</v>
       </c>
@@ -10460,7 +10531,7 @@
         <v>59426721586</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>80</v>
       </c>
@@ -10484,7 +10555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>81</v>
       </c>
@@ -10508,7 +10579,7 @@
         <v>28223508174</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>82</v>
       </c>
@@ -10532,7 +10603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>83</v>
       </c>
@@ -10556,7 +10627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>84</v>
       </c>
@@ -10580,7 +10651,7 @@
         <v>373931075</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>85</v>
       </c>
@@ -10604,7 +10675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>86</v>
       </c>
@@ -10628,7 +10699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>87</v>
       </c>
@@ -10652,7 +10723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>88</v>
       </c>
@@ -10676,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>89</v>
       </c>
@@ -10700,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>90</v>
       </c>
@@ -10724,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>91</v>
       </c>
@@ -10748,7 +10819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>92</v>
       </c>
@@ -10772,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>93</v>
       </c>
@@ -10796,7 +10867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>94</v>
       </c>
@@ -10820,7 +10891,7 @@
         <v>59426721586</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>95</v>
       </c>
@@ -10844,7 +10915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>96</v>
       </c>
@@ -10868,7 +10939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>97</v>
       </c>
@@ -10892,7 +10963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>98</v>
       </c>
@@ -10916,7 +10987,7 @@
         <v>132737831</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>99</v>
       </c>
@@ -10940,7 +11011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>100</v>
       </c>
@@ -10964,7 +11035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>101</v>
       </c>
@@ -10988,7 +11059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>102</v>
       </c>
@@ -11023,24 +11094,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0F55B1-797E-4CC3-B646-DD606B8B9EC8}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A2:F7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AP45" sqref="AP45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="7" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>104</v>
       </c>
@@ -11063,7 +11134,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>67</v>
       </c>
@@ -11086,8 +11157,12 @@
         <f t="shared" ref="G2:G30" si="0">SUM(B2:F2)</f>
         <v>59426721586</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="str">
+        <f>PROPER(A2)</f>
+        <v>Unclassified</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>79</v>
       </c>
@@ -11110,8 +11185,12 @@
         <f t="shared" si="0"/>
         <v>59426721586</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="1">PROPER(A3)</f>
+        <v>Void</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>94</v>
       </c>
@@ -11134,8 +11213,12 @@
         <f t="shared" si="0"/>
         <v>59426721586</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -11158,8 +11241,12 @@
         <f t="shared" si="0"/>
         <v>28223508174</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>Atmospheric</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>81</v>
       </c>
@@ -11182,10 +11269,14 @@
         <f t="shared" si="0"/>
         <v>28223508174</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>Sky</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="B7" s="1">
         <v>10042824134</v>
@@ -11206,8 +11297,12 @@
         <f t="shared" si="0"/>
         <v>26005285044</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>Geographic Feature</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -11230,8 +11325,12 @@
         <f t="shared" si="0"/>
         <v>13683478885</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>Artificial</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -11254,8 +11353,12 @@
         <f t="shared" si="0"/>
         <v>13673385029</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>Infrastructure</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -11278,8 +11381,12 @@
         <f t="shared" si="0"/>
         <v>11603991254</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>Vegetation</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
@@ -11302,8 +11409,12 @@
         <f t="shared" si="0"/>
         <v>11603991254</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>Plant</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -11326,10 +11437,14 @@
         <f t="shared" si="0"/>
         <v>9571723238</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>Building</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="B13" s="1">
         <v>4784116443</v>
@@ -11350,10 +11465,14 @@
         <f t="shared" si="0"/>
         <v>5831566609</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>Ground Cover</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="B14" s="1">
         <v>4458049667</v>
@@ -11374,8 +11493,12 @@
         <f t="shared" si="0"/>
         <v>5689296645</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>Bush &amp; Tree</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -11398,10 +11521,14 @@
         <f t="shared" si="0"/>
         <v>5536832975</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>Grass</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="B16" s="2">
         <v>2002047333</v>
@@ -11422,8 +11549,12 @@
         <f t="shared" si="0"/>
         <v>3183326456</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>Tree/Log</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>46</v>
       </c>
@@ -11446,8 +11577,12 @@
         <f t="shared" si="0"/>
         <v>477739783</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>Regulatory</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
@@ -11470,8 +11605,12 @@
         <f t="shared" si="0"/>
         <v>477583486</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>Pole</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>84</v>
       </c>
@@ -11494,8 +11633,12 @@
         <f t="shared" si="0"/>
         <v>373931075</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>Soil</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -11518,8 +11661,12 @@
         <f t="shared" si="0"/>
         <v>336601955</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>Landform</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -11542,8 +11689,12 @@
         <f t="shared" si="0"/>
         <v>294733634</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>Detritus</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -11566,10 +11717,14 @@
         <f t="shared" si="0"/>
         <v>224215056</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>Rock</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="B23" s="2">
         <v>10059</v>
@@ -11590,8 +11745,12 @@
         <f t="shared" si="0"/>
         <v>203864124</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>Land Body</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
@@ -11614,10 +11773,14 @@
         <f t="shared" si="0"/>
         <v>132737831</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>H2O</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="B25" s="2">
         <v>123792296</v>
@@ -11638,8 +11801,12 @@
         <f t="shared" si="0"/>
         <v>132737831</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>Water Body</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>98</v>
       </c>
@@ -11662,8 +11829,12 @@
         <f t="shared" si="0"/>
         <v>132737831</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>Water</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>73</v>
       </c>
@@ -11686,8 +11857,12 @@
         <f t="shared" si="0"/>
         <v>111981143</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>Puddle</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>102</v>
       </c>
@@ -11710,8 +11885,12 @@
         <f t="shared" si="0"/>
         <v>83128000</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>Wood</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>18</v>
       </c>
@@ -11734,8 +11913,12 @@
         <f t="shared" si="0"/>
         <v>77358667</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>Barrier</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>76</v>
       </c>
@@ -11758,8 +11941,12 @@
         <f t="shared" si="0"/>
         <v>61463364</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>Road</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>13</v>
       </c>
@@ -11779,11 +11966,15 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" ref="G31:G62" si="1">SUM(B31:F31)</f>
+        <f t="shared" ref="G31:G62" si="2">SUM(B31:F31)</f>
         <v>47730386</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>Asphalt</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>3</v>
       </c>
@@ -11803,11 +11994,15 @@
         <v>2620602</v>
       </c>
       <c r="G32">
+        <f t="shared" si="2"/>
+        <v>33421755</v>
+      </c>
+      <c r="H32" t="str">
         <f t="shared" si="1"/>
-        <v>33421755</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Agent</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>48</v>
       </c>
@@ -11827,11 +12022,15 @@
         <v>0</v>
       </c>
       <c r="G33">
+        <f t="shared" si="2"/>
+        <v>24020217</v>
+      </c>
+      <c r="H33" t="str">
         <f t="shared" si="1"/>
-        <v>24020217</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Fence</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>10</v>
       </c>
@@ -11851,11 +12050,15 @@
         <v>2017930</v>
       </c>
       <c r="G34">
+        <f t="shared" si="2"/>
+        <v>23826834</v>
+      </c>
+      <c r="H34" t="str">
         <f t="shared" si="1"/>
-        <v>23826834</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Vehicle</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>70</v>
       </c>
@@ -11875,11 +12078,15 @@
         <v>0</v>
       </c>
       <c r="G35">
+        <f t="shared" si="2"/>
+        <v>8992249</v>
+      </c>
+      <c r="H35" t="str">
         <f t="shared" si="1"/>
-        <v>8992249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Person</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>24</v>
       </c>
@@ -11899,13 +12106,17 @@
         <v>0</v>
       </c>
       <c r="G36">
+        <f t="shared" si="2"/>
+        <v>4966829</v>
+      </c>
+      <c r="H36" t="str">
         <f t="shared" si="1"/>
-        <v>4966829</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Bridge</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -11923,11 +12134,15 @@
         <v>2017930</v>
       </c>
       <c r="G37">
+        <f t="shared" si="2"/>
+        <v>2017930</v>
+      </c>
+      <c r="H37" t="str">
         <f t="shared" si="1"/>
-        <v>2017930</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Ground Vehicle</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>11</v>
       </c>
@@ -11947,13 +12162,17 @@
         <v>602672</v>
       </c>
       <c r="G38">
+        <f t="shared" si="2"/>
+        <v>602672</v>
+      </c>
+      <c r="H38" t="str">
         <f t="shared" si="1"/>
-        <v>602672</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Animal</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -11971,11 +12190,15 @@
         <v>0</v>
       </c>
       <c r="G39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Aerial Vehicle</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>15</v>
       </c>
@@ -11995,11 +12218,15 @@
         <v>0</v>
       </c>
       <c r="G40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Autumn</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
@@ -12019,13 +12246,17 @@
         <v>0</v>
       </c>
       <c r="G41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Season</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -12043,11 +12274,15 @@
         <v>0</v>
       </c>
       <c r="G42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Imaging Conditions</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>20</v>
       </c>
@@ -12067,11 +12302,15 @@
         <v>0</v>
       </c>
       <c r="G43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Bay</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>23</v>
       </c>
@@ -12091,11 +12330,15 @@
         <v>0</v>
       </c>
       <c r="G44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Biome</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>28</v>
       </c>
@@ -12115,11 +12358,15 @@
         <v>0</v>
       </c>
       <c r="G45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Cacti</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>30</v>
       </c>
@@ -12139,11 +12386,15 @@
         <v>0</v>
       </c>
       <c r="G46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Canyon</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>32</v>
       </c>
@@ -12163,13 +12414,17 @@
         <v>0</v>
       </c>
       <c r="G47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Cave</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -12187,11 +12442,15 @@
         <v>0</v>
       </c>
       <c r="G48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Celestial Body</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>34</v>
       </c>
@@ -12211,11 +12470,15 @@
         <v>0</v>
       </c>
       <c r="G49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Clear</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>35</v>
       </c>
@@ -12235,11 +12498,15 @@
         <v>0</v>
       </c>
       <c r="G50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Weather</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>36</v>
       </c>
@@ -12259,11 +12526,15 @@
         <v>0</v>
       </c>
       <c r="G51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Cloud</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>37</v>
       </c>
@@ -12283,11 +12554,15 @@
         <v>0</v>
       </c>
       <c r="G52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Coastal</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>38</v>
       </c>
@@ -12307,13 +12582,17 @@
         <v>0</v>
       </c>
       <c r="G53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Dawn</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
@@ -12331,11 +12610,15 @@
         <v>0</v>
       </c>
       <c r="G54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Time Of Day</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>40</v>
       </c>
@@ -12355,11 +12638,15 @@
         <v>0</v>
       </c>
       <c r="G55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Day</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>41</v>
       </c>
@@ -12379,11 +12666,15 @@
         <v>0</v>
       </c>
       <c r="G56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Desert</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>43</v>
       </c>
@@ -12403,13 +12694,17 @@
         <v>0</v>
       </c>
       <c r="G57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Dusk</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -12427,13 +12722,17 @@
         <v>0</v>
       </c>
       <c r="G58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Electric Pole</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="B59" s="2">
         <v>0</v>
@@ -12451,11 +12750,15 @@
         <v>0</v>
       </c>
       <c r="G59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Elevation Change</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>49</v>
       </c>
@@ -12475,13 +12778,17 @@
         <v>0</v>
       </c>
       <c r="G60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Flat</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
@@ -12499,13 +12806,17 @@
         <v>0</v>
       </c>
       <c r="G61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Fluctuating Elevation</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
@@ -12523,11 +12834,15 @@
         <v>0</v>
       </c>
       <c r="G62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Fog Haze</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>52</v>
       </c>
@@ -12547,11 +12862,15 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <f t="shared" ref="G63:G94" si="2">SUM(B63:F63)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G63:G94" si="3">SUM(B63:F63)</f>
+        <v>0</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="1"/>
+        <v>Forest</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>53</v>
       </c>
@@ -12571,11 +12890,15 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="1"/>
+        <v>Glacier</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>55</v>
       </c>
@@ -12595,13 +12918,17 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="1"/>
+        <v>Grassland</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="B66" s="1">
         <v>0</v>
@@ -12619,11 +12946,15 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="1"/>
+        <v>Guard Rail</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>59</v>
       </c>
@@ -12643,11 +12974,15 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H99" si="4">PROPER(A67)</f>
+        <v>Hill</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>60</v>
       </c>
@@ -12667,11 +13002,15 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="4"/>
+        <v>Ice</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>61</v>
       </c>
@@ -12691,11 +13030,15 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="4"/>
+        <v>Lake</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>62</v>
       </c>
@@ -12715,11 +13058,15 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="4"/>
+        <v>Leaf</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>64</v>
       </c>
@@ -12739,11 +13086,15 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="4"/>
+        <v>Mountain</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>65</v>
       </c>
@@ -12763,11 +13114,15 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="4"/>
+        <v>Night</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>66</v>
       </c>
@@ -12787,11 +13142,15 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>68</v>
       </c>
@@ -12811,13 +13170,17 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="4"/>
+        <v>Ocean</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="B75" s="2">
         <v>0</v>
@@ -12835,11 +13198,15 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="4"/>
+        <v>Optical Phenomenon</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>71</v>
       </c>
@@ -12859,11 +13226,15 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="4"/>
+        <v>Plain</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>72</v>
       </c>
@@ -12883,11 +13254,15 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="4"/>
+        <v>Plateau</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>74</v>
       </c>
@@ -12907,11 +13282,15 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="4"/>
+        <v>Rain</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>75</v>
       </c>
@@ -12931,11 +13310,15 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="4"/>
+        <v>River</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>77</v>
       </c>
@@ -12955,13 +13338,17 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="4"/>
+        <v>Sea</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="B81" s="1">
         <v>0</v>
@@ -12979,11 +13366,15 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="4"/>
+        <v>Sensor Issue</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>80</v>
       </c>
@@ -13003,11 +13394,15 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="4"/>
+        <v>Shape</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>82</v>
       </c>
@@ -13027,13 +13422,17 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="4"/>
+        <v>Snow</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="B84" s="2">
         <v>0</v>
@@ -13051,11 +13450,15 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="4"/>
+        <v>Snow Ice</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>85</v>
       </c>
@@ -13075,13 +13478,17 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="4"/>
+        <v>Spring</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -13099,11 +13506,15 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="4"/>
+        <v>Street Light</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>87</v>
       </c>
@@ -13123,11 +13534,15 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="4"/>
+        <v>Subterranean</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>88</v>
       </c>
@@ -13147,13 +13562,17 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="4"/>
+        <v>Summer</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2">
         <v>0</v>
@@ -13171,13 +13590,17 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="4"/>
+        <v>Telecommunication Pole</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
@@ -13195,13 +13618,17 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="4"/>
+        <v>Traffic Light</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="B91" s="2">
         <v>0</v>
@@ -13219,11 +13646,15 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="4"/>
+        <v>Traffic Sign</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>92</v>
       </c>
@@ -13243,11 +13674,15 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="4"/>
+        <v>Tundra</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>93</v>
       </c>
@@ -13267,11 +13702,15 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="4"/>
+        <v>Tunnel</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>95</v>
       </c>
@@ -13291,11 +13730,15 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="4"/>
+        <v>Valley</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>96</v>
       </c>
@@ -13315,11 +13758,15 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <f t="shared" ref="G95:G99" si="3">SUM(B95:F95)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G95:G99" si="5">SUM(B95:F95)</f>
+        <v>0</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="4"/>
+        <v>Vine</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>97</v>
       </c>
@@ -13339,11 +13786,15 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="4"/>
+        <v>Wall</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>99</v>
       </c>
@@ -13363,11 +13814,15 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="4"/>
+        <v>Water_Vehicle</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>100</v>
       </c>
@@ -13387,11 +13842,15 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="4"/>
+        <v>Wetland</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>101</v>
       </c>
@@ -13411,8 +13870,12 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="4"/>
+        <v>Winter</v>
       </c>
     </row>
   </sheetData>
